--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2353086.244220375</v>
+        <v>2428615.913885181</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9700744.674908342</v>
+        <v>9700744.67490834</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>264.3862503229324</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>7.769872728863515</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -747,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>201.089163843681</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.2227926850046</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>54.32902562741679</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>281.6126679114866</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>266.6242610566629</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>295.4790779553554</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>92.39479380343775</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>89.86857700878774</v>
+        <v>229.5889480231534</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>33.15891095871597</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>60.54139430664167</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>141.1171164949151</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.831980181941</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>203.3807067317122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>146.2506239775082</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985811</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>131.9638036713303</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>33.35146980185674</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.67232330199</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>166.1250665966035</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2764,13 +2766,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278749997</v>
       </c>
       <c r="U28" t="n">
-        <v>206.806426921486</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238318</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>137.9604981520653</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2967,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.98836639312871</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>45.75333626975304</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3481,10 +3483,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>90.46216258603741</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>159.9578729035108</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>132.7170563065808</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>14.73664328357051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>206.1089286249492</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1303.415489224708</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>892.4295844351004</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>474.4657763332873</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2689.300734726441</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2513.123247040611</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2513.123247040611</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2513.123247040611</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2182.06035969704</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.06035969704</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.06035969704</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.921027721229</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4391,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4416,22 +4418,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1646.746562480845</v>
+        <v>2056.787465592192</v>
       </c>
       <c r="C5" t="n">
-        <v>1277.784045540433</v>
+        <v>1687.82494865178</v>
       </c>
       <c r="D5" t="n">
-        <v>919.5183469336828</v>
+        <v>1329.55925004503</v>
       </c>
       <c r="E5" t="n">
-        <v>533.7300943354385</v>
+        <v>943.7709974467855</v>
       </c>
       <c r="F5" t="n">
-        <v>122.7441895458309</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>108.8207854844218</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y5" t="n">
-        <v>2033.346402544967</v>
+        <v>2443.387305656314</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>443.6717438918015</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>443.6717438918015</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>443.6717438918015</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X7" t="n">
-        <v>443.6717438918015</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>777.3160057778007</v>
+        <v>1689.203741822954</v>
       </c>
       <c r="C8" t="n">
-        <v>777.3160057778007</v>
+        <v>1689.203741822954</v>
       </c>
       <c r="D8" t="n">
-        <v>777.3160057778007</v>
+        <v>1689.203741822954</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1303.415489224709</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>892.4295844351018</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>474.4657763332887</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>147.2710563692915</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="Y8" t="n">
-        <v>777.3160057778007</v>
+        <v>2075.803581887075</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="U10" t="n">
-        <v>380.6275373157412</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>380.6275373157412</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>380.6275373157412</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5036,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>359.1696912903951</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C13" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1465.422421104654</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1465.422421104654</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1176.293782318212</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>1176.293782318212</v>
       </c>
       <c r="W13" t="n">
-        <v>359.1696912903951</v>
+        <v>1176.293782318212</v>
       </c>
       <c r="X13" t="n">
-        <v>359.1696912903951</v>
+        <v>948.3042314201945</v>
       </c>
       <c r="Y13" t="n">
-        <v>359.1696912903951</v>
+        <v>727.5116522766643</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,10 +5263,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5279,22 +5281,22 @@
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,10 +5305,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5318,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>816.7775023825404</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1440.685527502827</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1186.00103929694</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W16" t="n">
-        <v>896.5838692599799</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="X16" t="n">
-        <v>668.5943183619626</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184324</v>
+        <v>985.7136853104473</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5500,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,16 +5512,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5537,7 +5539,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5650,25 +5652,25 @@
         <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1004.352574466701</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>714.9354044297403</v>
+        <v>896.5838692599837</v>
       </c>
       <c r="X19" t="n">
-        <v>486.9458535317229</v>
+        <v>668.5943183619663</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>447.8017392184362</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,7 +5773,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5817,25 +5819,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
         <v>1247.466478653857</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>4036.945405494731</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169051</v>
+        <v>3782.260917288844</v>
       </c>
       <c r="W22" t="n">
-        <v>486.9458535317229</v>
+        <v>3492.843747251884</v>
       </c>
       <c r="X22" t="n">
-        <v>486.9458535317229</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6075,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>3886.516115720545</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>3717.579932792638</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>3717.579932792638</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>3717.579932792638</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>4693.051475441966</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>4403.922836655523</v>
       </c>
       <c r="V25" t="n">
-        <v>1187.92115703528</v>
+        <v>4403.922836655523</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.92115703528</v>
+        <v>4114.505666618563</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.92115703528</v>
+        <v>3886.516115720545</v>
       </c>
       <c r="Y25" t="n">
-        <v>1187.92115703528</v>
+        <v>3886.516115720545</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6205,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6291,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387596</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011545</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6558,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1029.666285013068</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851612</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6661,10 +6663,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X31" t="n">
-        <v>1432.107328986838</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y31" t="n">
-        <v>1211.314749843308</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333286</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V34" t="n">
-        <v>844.0280401273993</v>
+        <v>4325.590432961834</v>
       </c>
       <c r="W34" t="n">
-        <v>554.6108700904388</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="X34" t="n">
-        <v>554.6108700904388</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="Y34" t="n">
-        <v>333.8182909469086</v>
+        <v>4036.173262924874</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>583.631181234266</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>583.631181234266</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7165,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7184,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,13 +7210,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7239,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>427.726883381638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>258.7907004537311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>258.7907004537311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>258.7907004537311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>258.7907004537311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488384</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V40" t="n">
-        <v>898.7925182488384</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W40" t="n">
-        <v>609.3753482118777</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X40" t="n">
-        <v>609.3753482118777</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>609.3753482118777</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7506,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>564.1830073829216</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1253.783534486818</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1029.998119276324</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>740.8694804898822</v>
       </c>
       <c r="V43" t="n">
-        <v>1484.03077229167</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="W43" t="n">
-        <v>1194.613602254709</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="X43" t="n">
-        <v>966.6240513566914</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y43" t="n">
-        <v>745.8314722131613</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="44">
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>955.8649149143356</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.8649149143356</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>955.8649149143356</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>727.8753640163183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9486,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>164.7618990248873</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>225.9816040299493</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>7.498356523297304</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>228.5889167740531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23938,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>48.75693659211584</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>140.2723743590828</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>154.5591946652607</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871804</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23.15965687994731</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>55.42249446178573</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24652,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338955</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>10.65497486614706</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.8436137888086</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>206.384307054075</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6754807377906</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>6.535695559866753</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>65.20375367702249</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>237.4010000402575</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>80.12842377362816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327922</v>
@@ -26338,22 +26340,22 @@
         <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="O2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.510358884090614e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007432</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007432</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007432</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007451</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26500,10 +26502,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26522,46 +26524,46 @@
         <v>-246014.7670888758</v>
       </c>
       <c r="C6" t="n">
-        <v>343953.1121256686</v>
+        <v>343953.1121256687</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256684</v>
+        <v>343953.1121256688</v>
       </c>
       <c r="E6" t="n">
-        <v>-77623.41044882801</v>
+        <v>-77623.4104488278</v>
       </c>
       <c r="F6" t="n">
+        <v>447536.6260280682</v>
+      </c>
+      <c r="G6" t="n">
         <v>447536.626028068</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>447536.6260280677</v>
+      </c>
+      <c r="I6" t="n">
+        <v>447536.6260280684</v>
+      </c>
+      <c r="J6" t="n">
+        <v>271113.406835475</v>
+      </c>
+      <c r="K6" t="n">
         <v>447536.6260280681</v>
-      </c>
-      <c r="H6" t="n">
-        <v>447536.6260280681</v>
-      </c>
-      <c r="I6" t="n">
-        <v>447536.6260280681</v>
-      </c>
-      <c r="J6" t="n">
-        <v>271113.4068354752</v>
-      </c>
-      <c r="K6" t="n">
-        <v>447536.6260280678</v>
       </c>
       <c r="L6" t="n">
         <v>447536.6260280681</v>
       </c>
       <c r="M6" t="n">
-        <v>312735.6107942308</v>
+        <v>312735.6107942312</v>
       </c>
       <c r="N6" t="n">
-        <v>447536.6260280682</v>
+        <v>447536.6260280681</v>
       </c>
       <c r="O6" t="n">
         <v>447536.6260280679</v>
       </c>
       <c r="P6" t="n">
-        <v>447536.6260280681</v>
+        <v>447536.6260280679</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>59.53652244142478</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>46.70852984594819</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>51.04847948014705</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>263.6532530567068</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>269.5937471369404</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>4.669206330491136</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>19.89873727992813</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>86.45129211690642</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>59.53652244142344</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>196.41329723319</v>
+        <v>56.69292621882434</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28719,7 +28721,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -29013,7 +29015,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29490,7 +29492,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -29521,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31516,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,10 +35017,10 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36926,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,7 +37630,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38028,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2428615.913885181</v>
+        <v>2421598.898993468</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9700744.67490834</v>
+        <v>9700744.674908342</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>187.1086023358201</v>
       </c>
       <c r="H2" t="n">
-        <v>264.3862503229324</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>201.089163843681</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>143.2227926850046</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>9.812873897097024</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6242610566629</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>92.39479380343775</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>194.9232569758564</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>229.5889480231534</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>33.15891095871597</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>199.7436324197938</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>141.1171164949151</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>79.47420870022064</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.831980181941</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>146.2506239775082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985811</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185674</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>166.1250665966035</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278749997</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238318</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>137.9604981520653</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>45.75333626975304</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002142</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>122.65197883716</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>132.7170563065808</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139875</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>57.9340815625378</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.203741822952</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>1689.203741822952</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D2" t="n">
-        <v>1689.203741822952</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.415489224708</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F2" t="n">
-        <v>892.4295844351004</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G2" t="n">
-        <v>474.4657763332873</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4397,37 +4397,37 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>525.0086166875648</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2056.787465592192</v>
+        <v>1129.234822142136</v>
       </c>
       <c r="C5" t="n">
-        <v>1687.82494865178</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D5" t="n">
-        <v>1329.55925004503</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>943.7709974467855</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2632.208407713264</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2632.208407713264</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2632.208407713264</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2632.208407713264</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>2279.43975244315</v>
       </c>
       <c r="X5" t="n">
-        <v>2443.387305656314</v>
+        <v>1905.97399418207</v>
       </c>
       <c r="Y5" t="n">
-        <v>2443.387305656314</v>
+        <v>1515.834662206258</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>281.2479710834698</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>281.2479710834698</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822954</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>1689.203741822954</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>1689.203741822954</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>1303.415489224709</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>892.4295844351018</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>474.4657763332887</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>147.2710563692915</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2445.228222785224</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862887</v>
+        <v>2445.228222785224</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862887</v>
+        <v>2445.228222785224</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862887</v>
+        <v>2445.228222785224</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887075</v>
+        <v>2055.088890809413</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036448</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036448</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.8631874464246</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185177</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1465.422421104654</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1465.422421104654</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1176.293782318212</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1176.293782318212</v>
+        <v>1073.36961047893</v>
       </c>
       <c r="W13" t="n">
-        <v>1176.293782318212</v>
+        <v>783.952440441969</v>
       </c>
       <c r="X13" t="n">
-        <v>948.3042314201945</v>
+        <v>783.952440441969</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.5116522766643</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5272,7 +5272,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,22 +5281,22 @@
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,10 +5305,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.7136853104473</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>816.7775023825404</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1418.639292072831</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>1163.954803866944</v>
       </c>
       <c r="W16" t="n">
-        <v>985.7136853104473</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X16" t="n">
-        <v>985.7136853104473</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.7136853104473</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,28 +5500,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>896.5838692599837</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619663</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184362</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494731</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288844</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>3492.843747251884</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916675</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3886.516115720545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3717.579932792638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3717.579932792638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3717.579932792638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4693.051475441966</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4403.922836655523</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4403.922836655523</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>4114.505666618563</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3886.516115720545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3886.516115720545</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,67 +6205,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387596</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011545</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
         <v>904.3190116155888</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1270.926719659885</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6742,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4660.934562929845</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4371.805924143403</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4325.590432961834</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4036.173262924874</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,22 +6955,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,46 +7101,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,16 +7192,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,13 +7210,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7241,28 +7241,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1375.025382843599</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1151.239967633105</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>862.1113288466635</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1253.783534486818</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1029.998119276324</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>740.8694804898822</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>486.1849922839954</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>486.1849922839954</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>486.1849922839954</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229593</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>164.7618990248873</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>52.39401090403422</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>7.498356523297304</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>206.7631436983567</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>140.2723743590828</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871804</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>55.42249446178573</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338955</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>10.65497486614706</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>206.384307054075</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338905</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>75.26883114644322</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>65.20375367702249</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>228.5889167740532</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327923</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.683632792</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="K2" t="n">
-        <v>547440.6836327922</v>
-      </c>
       <c r="L2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="M2" t="n">
         <v>547440.6836327923</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327917</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.510358884090614e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007432</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007432</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="J4" t="n">
-        <v>7916.731656007432</v>
-      </c>
       <c r="K4" t="n">
-        <v>7916.731656007451</v>
+        <v>7916.731656007546</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007486</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,25 +26487,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-246014.7670888758</v>
       </c>
       <c r="C6" t="n">
-        <v>343953.1121256687</v>
+        <v>343953.1121256686</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256688</v>
+        <v>343953.1121256684</v>
       </c>
       <c r="E6" t="n">
-        <v>-77623.4104488278</v>
+        <v>-78598.00170854956</v>
       </c>
       <c r="F6" t="n">
-        <v>447536.6260280682</v>
+        <v>446562.0347683466</v>
       </c>
       <c r="G6" t="n">
-        <v>447536.626028068</v>
+        <v>446562.0347683463</v>
       </c>
       <c r="H6" t="n">
-        <v>447536.6260280677</v>
+        <v>446562.0347683462</v>
       </c>
       <c r="I6" t="n">
-        <v>447536.6260280684</v>
+        <v>446562.0347683462</v>
       </c>
       <c r="J6" t="n">
-        <v>271113.406835475</v>
+        <v>270138.8155757533</v>
       </c>
       <c r="K6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.0347683462</v>
       </c>
       <c r="L6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.0347683462</v>
       </c>
       <c r="M6" t="n">
-        <v>312735.6107942312</v>
+        <v>311761.0195345095</v>
       </c>
       <c r="N6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.0347683463</v>
       </c>
       <c r="O6" t="n">
-        <v>447536.6260280679</v>
+        <v>446562.034768346</v>
       </c>
       <c r="P6" t="n">
-        <v>447536.6260280679</v>
+        <v>446562.034768346</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>226.6755676849749</v>
       </c>
       <c r="H2" t="n">
-        <v>59.53652244142478</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>51.04847948014705</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>263.6532530567068</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>164.6028389118745</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>17.64056718375454</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>19.89873727992813</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>59.53652244142344</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>56.30091053243291</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946059</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>56.69292621882434</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28721,7 +28721,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -29015,7 +29015,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29492,7 +29492,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-2.207398955824477e-12</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734254</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
@@ -35509,7 +35509,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35746,7 +35746,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37475,16 +37475,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056001</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2421598.898993468</v>
+        <v>2426538.1618425</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>187.1086023358201</v>
+        <v>187.1086023358206</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964033</v>
+        <v>129.0246247964037</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>347.5198166822489</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>9.812873897097024</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>96.36163317610269</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>194.9232569758564</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.52687838733143</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>199.7436324197938</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>140.2691516600322</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>79.47420870022064</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>207.0920728594998</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002142</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052003</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>93.87916681139875</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>57.9340815625378</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2425576766696</v>
       </c>
     </row>
   </sheetData>
@@ -4309,16 +4309,16 @@
         <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>1551.447402037877</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D2" t="n">
         <v>1193.181703431127</v>
       </c>
       <c r="E2" t="n">
-        <v>807.3934508328825</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F2" t="n">
-        <v>396.407546043275</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,52 +4327,52 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y2" t="n">
         <v>2307.009759042411</v>
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M3" t="n">
         <v>1237.953133915166</v>
@@ -4430,22 +4430,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,58 +4464,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
         <v>597.8010803716834</v>
@@ -4524,16 +4524,16 @@
         <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1129.234822142136</v>
+        <v>1139.146815977587</v>
       </c>
       <c r="C5" t="n">
-        <v>760.2723052017247</v>
+        <v>770.1842990371758</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>411.9186004304253</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>411.9186004304253</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>404.9730996812219</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2632.208407713264</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2632.208407713264</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2632.208407713264</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2632.208407713264</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W5" t="n">
-        <v>2279.43975244315</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1905.97399418207</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1515.834662206258</v>
+        <v>1525.746656041709</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,37 +4658,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1668.489050745291</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>1299.526533804879</v>
+        <v>1320.24122488254</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>961.9755262757897</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>576.1872736775454</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>569.2417729283419</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>151.2779648265288</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2445.228222785224</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2445.228222785224</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2445.228222785224</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>2445.228222785224</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y8" t="n">
-        <v>2055.088890809413</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4901,31 +4901,31 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5044,16 +5044,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.1598612984388</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1073.36961047893</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>783.952440441969</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X13" t="n">
-        <v>783.952440441969</v>
+        <v>1102.545770574205</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.1598612984388</v>
+        <v>881.753191430675</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1418.639292072831</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.954803866944</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>874.5376338299834</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>646.5480829319661</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>425.7555037884359</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5703,19 +5703,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5752,22 +5752,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6177,7 +6177,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
         <v>869.3083006011506</v>
@@ -6223,16 +6223,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6247,13 +6247,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,7 +6262,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,28 +6481,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6785,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7107,40 +7107,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,22 +7159,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514081</v>
@@ -7192,16 +7192,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,13 +7356,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011506</v>
@@ -7374,10 +7374,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,19 +7487,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7845,13 +7845,13 @@
         <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>896.58386925998</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>668.5943183619627</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184325</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.044284299266</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9017,19 +9017,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298203</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,19 +23469,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>52.39401090403422</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>85.44050372900492</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23709,7 +23709,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>206.7631436983567</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>79.43092547709125</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="29">
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338905</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>192.3581855871786</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>228.5889167740532</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049989</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049989</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327923</v>
@@ -26334,28 +26334,28 @@
         <v>547440.683632792</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="K2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327917</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="K4" t="n">
-        <v>7916.731656007546</v>
-      </c>
       <c r="L4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7916.731656007418</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007482</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007487</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007486</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,37 +26481,37 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246014.7670888758</v>
+        <v>-246014.767088876</v>
       </c>
       <c r="C6" t="n">
+        <v>343953.1121256683</v>
+      </c>
+      <c r="D6" t="n">
         <v>343953.1121256686</v>
       </c>
-      <c r="D6" t="n">
-        <v>343953.1121256684</v>
-      </c>
       <c r="E6" t="n">
-        <v>-78598.00170854956</v>
+        <v>-77720.86957480009</v>
       </c>
       <c r="F6" t="n">
-        <v>446562.0347683466</v>
+        <v>447439.1669020961</v>
       </c>
       <c r="G6" t="n">
-        <v>446562.0347683463</v>
+        <v>447439.1669020958</v>
       </c>
       <c r="H6" t="n">
-        <v>446562.0347683462</v>
+        <v>447439.1669020957</v>
       </c>
       <c r="I6" t="n">
-        <v>446562.0347683462</v>
+        <v>447439.1669020958</v>
       </c>
       <c r="J6" t="n">
-        <v>270138.8155757533</v>
+        <v>271015.9477095032</v>
       </c>
       <c r="K6" t="n">
-        <v>446562.0347683462</v>
+        <v>447439.1669020957</v>
       </c>
       <c r="L6" t="n">
-        <v>446562.0347683462</v>
+        <v>447439.1669020961</v>
       </c>
       <c r="M6" t="n">
-        <v>311761.0195345095</v>
+        <v>312638.1516682584</v>
       </c>
       <c r="N6" t="n">
-        <v>446562.0347683463</v>
+        <v>447439.1669020957</v>
       </c>
       <c r="O6" t="n">
-        <v>446562.034768346</v>
+        <v>447439.1669020959</v>
       </c>
       <c r="P6" t="n">
-        <v>446562.034768346</v>
+        <v>447439.1669020957</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26749,34 +26749,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26816,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26828,7 +26828,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>226.6755676849749</v>
+        <v>226.6755676849744</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168096</v>
+        <v>96.01048066168062</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>66.26435333854613</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.6028389118745</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>17.64056718375454</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>227.5611395882545</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>56.30091053243291</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.3051017946059</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.8347852886633</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-2.207398955824477e-12</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.035029646461929e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3926104730631</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37475,16 +37475,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056001</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
